--- a/2025.xlsx
+++ b/2025.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30220" windowHeight="15540"/>
+    <workbookView windowWidth="27945" windowHeight="12165"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1 (2)'!$A$1:$G$334</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Sheet1 (2)'!$2:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1 (2)'!$C$2:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$335</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$C$2:$E$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="343">
   <si>
     <t>初一年级名册</t>
   </si>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>庄梓莹</t>
+  </si>
+  <si>
+    <t>周姜依</t>
   </si>
   <si>
     <t>蔡定峄</t>
@@ -2306,10 +2309,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G334"/>
+  <dimension ref="A1:G335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M322" sqref="M322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -6207,7 +6210,7 @@
         <v>2025010307</v>
       </c>
       <c r="D195" s="7">
-        <v>202510448</v>
+        <v>202510447</v>
       </c>
       <c r="E195" s="7" t="s">
         <v>202</v>
@@ -6307,7 +6310,7 @@
         <v>2025010045</v>
       </c>
       <c r="D200" s="7">
-        <v>202510506</v>
+        <v>202510505</v>
       </c>
       <c r="E200" s="7" t="s">
         <v>207</v>
@@ -6327,7 +6330,7 @@
         <v>2025010048</v>
       </c>
       <c r="D201" s="7">
-        <v>202510507</v>
+        <v>202510506</v>
       </c>
       <c r="E201" s="7" t="s">
         <v>208</v>
@@ -6347,7 +6350,7 @@
         <v>2025010050</v>
       </c>
       <c r="D202" s="7">
-        <v>202510508</v>
+        <v>202510507</v>
       </c>
       <c r="E202" s="7" t="s">
         <v>209</v>
@@ -6367,7 +6370,7 @@
         <v>2025010074</v>
       </c>
       <c r="D203" s="7">
-        <v>202510509</v>
+        <v>202510508</v>
       </c>
       <c r="E203" s="7" t="s">
         <v>210</v>
@@ -6387,7 +6390,7 @@
         <v>2025010081</v>
       </c>
       <c r="D204" s="7">
-        <v>202510510</v>
+        <v>202510509</v>
       </c>
       <c r="E204" s="7" t="s">
         <v>211</v>
@@ -6407,7 +6410,7 @@
         <v>2025010094</v>
       </c>
       <c r="D205" s="7">
-        <v>202510511</v>
+        <v>202510510</v>
       </c>
       <c r="E205" s="7" t="s">
         <v>212</v>
@@ -6427,7 +6430,7 @@
         <v>2025010096</v>
       </c>
       <c r="D206" s="7">
-        <v>202510512</v>
+        <v>202510511</v>
       </c>
       <c r="E206" s="7" t="s">
         <v>213</v>
@@ -6447,7 +6450,7 @@
         <v>2025010111</v>
       </c>
       <c r="D207" s="7">
-        <v>202510514</v>
+        <v>202510512</v>
       </c>
       <c r="E207" s="7" t="s">
         <v>214</v>
@@ -6467,7 +6470,7 @@
         <v>2025010112</v>
       </c>
       <c r="D208" s="7">
-        <v>202510515</v>
+        <v>202510513</v>
       </c>
       <c r="E208" s="7" t="s">
         <v>215</v>
@@ -6487,7 +6490,7 @@
         <v>2025010123</v>
       </c>
       <c r="D209" s="7">
-        <v>202510516</v>
+        <v>202510514</v>
       </c>
       <c r="E209" s="7" t="s">
         <v>216</v>
@@ -6507,7 +6510,7 @@
         <v>2025010124</v>
       </c>
       <c r="D210" s="7">
-        <v>202510517</v>
+        <v>202510515</v>
       </c>
       <c r="E210" s="7" t="s">
         <v>217</v>
@@ -6527,7 +6530,7 @@
         <v>2025010127</v>
       </c>
       <c r="D211" s="7">
-        <v>202510518</v>
+        <v>202510516</v>
       </c>
       <c r="E211" s="7" t="s">
         <v>218</v>
@@ -6547,7 +6550,7 @@
         <v>2025010138</v>
       </c>
       <c r="D212" s="7">
-        <v>202510519</v>
+        <v>202510517</v>
       </c>
       <c r="E212" s="7" t="s">
         <v>219</v>
@@ -6567,7 +6570,7 @@
         <v>2025010142</v>
       </c>
       <c r="D213" s="7">
-        <v>202510520</v>
+        <v>202510518</v>
       </c>
       <c r="E213" s="7" t="s">
         <v>220</v>
@@ -6587,7 +6590,7 @@
         <v>2025010160</v>
       </c>
       <c r="D214" s="7">
-        <v>202510521</v>
+        <v>202510519</v>
       </c>
       <c r="E214" s="7" t="s">
         <v>221</v>
@@ -6607,7 +6610,7 @@
         <v>2025010163</v>
       </c>
       <c r="D215" s="7">
-        <v>202510522</v>
+        <v>202510520</v>
       </c>
       <c r="E215" s="7" t="s">
         <v>222</v>
@@ -6627,7 +6630,7 @@
         <v>2025010172</v>
       </c>
       <c r="D216" s="7">
-        <v>202510523</v>
+        <v>202510521</v>
       </c>
       <c r="E216" s="7" t="s">
         <v>223</v>
@@ -6647,7 +6650,7 @@
         <v>2025010180</v>
       </c>
       <c r="D217" s="7">
-        <v>202510524</v>
+        <v>202510522</v>
       </c>
       <c r="E217" s="7" t="s">
         <v>224</v>
@@ -6667,7 +6670,7 @@
         <v>2025010353</v>
       </c>
       <c r="D218" s="7">
-        <v>202510525</v>
+        <v>202510523</v>
       </c>
       <c r="E218" s="9" t="s">
         <v>225</v>
@@ -6687,7 +6690,7 @@
         <v>2025010187</v>
       </c>
       <c r="D219" s="7">
-        <v>202510526</v>
+        <v>202510524</v>
       </c>
       <c r="E219" s="7" t="s">
         <v>226</v>
@@ -6707,7 +6710,7 @@
         <v>2025010330</v>
       </c>
       <c r="D220" s="7">
-        <v>202510527</v>
+        <v>202510525</v>
       </c>
       <c r="E220" s="9" t="s">
         <v>227</v>
@@ -6727,7 +6730,7 @@
         <v>2025010190</v>
       </c>
       <c r="D221" s="7">
-        <v>202510528</v>
+        <v>202510526</v>
       </c>
       <c r="E221" s="7" t="s">
         <v>228</v>
@@ -6747,7 +6750,7 @@
         <v>2025010217</v>
       </c>
       <c r="D222" s="7">
-        <v>202510529</v>
+        <v>202510527</v>
       </c>
       <c r="E222" s="7" t="s">
         <v>229</v>
@@ -6767,7 +6770,7 @@
         <v>2025010219</v>
       </c>
       <c r="D223" s="7">
-        <v>202510530</v>
+        <v>202510528</v>
       </c>
       <c r="E223" s="7" t="s">
         <v>230</v>
@@ -6787,7 +6790,7 @@
         <v>2025010233</v>
       </c>
       <c r="D224" s="7">
-        <v>202510531</v>
+        <v>202510529</v>
       </c>
       <c r="E224" s="7" t="s">
         <v>231</v>
@@ -6807,7 +6810,7 @@
         <v>2025010238</v>
       </c>
       <c r="D225" s="7">
-        <v>202510532</v>
+        <v>202510530</v>
       </c>
       <c r="E225" s="7" t="s">
         <v>232</v>
@@ -6827,7 +6830,7 @@
         <v>2025010239</v>
       </c>
       <c r="D226" s="7">
-        <v>202510533</v>
+        <v>202510531</v>
       </c>
       <c r="E226" s="7" t="s">
         <v>233</v>
@@ -6847,7 +6850,7 @@
         <v>2025010240</v>
       </c>
       <c r="D227" s="7">
-        <v>202510534</v>
+        <v>202510532</v>
       </c>
       <c r="E227" s="7" t="s">
         <v>234</v>
@@ -6867,7 +6870,7 @@
         <v>2025010241</v>
       </c>
       <c r="D228" s="7">
-        <v>202510535</v>
+        <v>202510533</v>
       </c>
       <c r="E228" s="7" t="s">
         <v>235</v>
@@ -6887,7 +6890,7 @@
         <v>2025010243</v>
       </c>
       <c r="D229" s="7">
-        <v>202510536</v>
+        <v>202510534</v>
       </c>
       <c r="E229" s="7" t="s">
         <v>236</v>
@@ -6907,7 +6910,7 @@
         <v>2025010252</v>
       </c>
       <c r="D230" s="7">
-        <v>202510537</v>
+        <v>202510535</v>
       </c>
       <c r="E230" s="7" t="s">
         <v>237</v>
@@ -6927,7 +6930,7 @@
         <v>2025010254</v>
       </c>
       <c r="D231" s="7">
-        <v>202510538</v>
+        <v>202510536</v>
       </c>
       <c r="E231" s="7" t="s">
         <v>238</v>
@@ -6947,7 +6950,7 @@
         <v>2025010255</v>
       </c>
       <c r="D232" s="7">
-        <v>202510539</v>
+        <v>202510537</v>
       </c>
       <c r="E232" s="7" t="s">
         <v>239</v>
@@ -6967,7 +6970,7 @@
         <v>2025010264</v>
       </c>
       <c r="D233" s="7">
-        <v>202510541</v>
+        <v>202510538</v>
       </c>
       <c r="E233" s="7" t="s">
         <v>240</v>
@@ -6987,7 +6990,7 @@
         <v>2025010269</v>
       </c>
       <c r="D234" s="7">
-        <v>202510542</v>
+        <v>202510539</v>
       </c>
       <c r="E234" s="7" t="s">
         <v>241</v>
@@ -7007,7 +7010,7 @@
         <v>2025010274</v>
       </c>
       <c r="D235" s="7">
-        <v>202510543</v>
+        <v>202510540</v>
       </c>
       <c r="E235" s="7" t="s">
         <v>242</v>
@@ -7027,7 +7030,7 @@
         <v>2025010294</v>
       </c>
       <c r="D236" s="7">
-        <v>202510544</v>
+        <v>202510541</v>
       </c>
       <c r="E236" s="7" t="s">
         <v>243</v>
@@ -7047,7 +7050,7 @@
         <v>2025010299</v>
       </c>
       <c r="D237" s="7">
-        <v>202510545</v>
+        <v>202510542</v>
       </c>
       <c r="E237" s="7" t="s">
         <v>244</v>
@@ -7067,7 +7070,7 @@
         <v>2025010316</v>
       </c>
       <c r="D238" s="7">
-        <v>202510547</v>
+        <v>202510543</v>
       </c>
       <c r="E238" s="7" t="s">
         <v>245</v>
@@ -7087,7 +7090,7 @@
         <v>2025010317</v>
       </c>
       <c r="D239" s="7">
-        <v>202510548</v>
+        <v>202510544</v>
       </c>
       <c r="E239" s="7" t="s">
         <v>246</v>
@@ -7101,19 +7104,19 @@
         <v>238</v>
       </c>
       <c r="B240" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" s="7">
-        <v>2025010004</v>
+        <v>2025010304</v>
       </c>
       <c r="D240" s="7">
-        <v>202510601</v>
+        <v>202510545</v>
       </c>
       <c r="E240" s="7" t="s">
         <v>247</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" customHeight="1" spans="1:6">
@@ -7124,16 +7127,16 @@
         <v>6</v>
       </c>
       <c r="C241" s="7">
-        <v>2025010023</v>
+        <v>2025010004</v>
       </c>
       <c r="D241" s="7">
-        <v>202510602</v>
+        <v>202510601</v>
       </c>
       <c r="E241" s="7" t="s">
         <v>248</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" customHeight="1" spans="1:6">
@@ -7144,16 +7147,16 @@
         <v>6</v>
       </c>
       <c r="C242" s="7">
-        <v>2025010024</v>
+        <v>2025010023</v>
       </c>
       <c r="D242" s="7">
-        <v>202510603</v>
+        <v>202510602</v>
       </c>
       <c r="E242" s="7" t="s">
         <v>249</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" customHeight="1" spans="1:6">
@@ -7164,10 +7167,10 @@
         <v>6</v>
       </c>
       <c r="C243" s="7">
-        <v>2025010026</v>
+        <v>2025010024</v>
       </c>
       <c r="D243" s="7">
-        <v>202510604</v>
+        <v>202510603</v>
       </c>
       <c r="E243" s="7" t="s">
         <v>250</v>
@@ -7184,16 +7187,16 @@
         <v>6</v>
       </c>
       <c r="C244" s="7">
-        <v>2025010033</v>
+        <v>2025010026</v>
       </c>
       <c r="D244" s="7">
-        <v>202510605</v>
+        <v>202510604</v>
       </c>
       <c r="E244" s="7" t="s">
         <v>251</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" customHeight="1" spans="1:6">
@@ -7204,16 +7207,16 @@
         <v>6</v>
       </c>
       <c r="C245" s="7">
-        <v>2025010047</v>
+        <v>2025010033</v>
       </c>
       <c r="D245" s="7">
-        <v>202510606</v>
+        <v>202510605</v>
       </c>
       <c r="E245" s="7" t="s">
         <v>252</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246" customHeight="1" spans="1:6">
@@ -7224,16 +7227,16 @@
         <v>6</v>
       </c>
       <c r="C246" s="7">
-        <v>2025010059</v>
+        <v>2025010047</v>
       </c>
       <c r="D246" s="7">
-        <v>202510607</v>
+        <v>202510606</v>
       </c>
       <c r="E246" s="7" t="s">
         <v>253</v>
       </c>
       <c r="F246" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" customHeight="1" spans="1:6">
@@ -7244,10 +7247,10 @@
         <v>6</v>
       </c>
       <c r="C247" s="7">
-        <v>2025010061</v>
+        <v>2025010059</v>
       </c>
       <c r="D247" s="7">
-        <v>202510608</v>
+        <v>202510607</v>
       </c>
       <c r="E247" s="7" t="s">
         <v>254</v>
@@ -7264,10 +7267,10 @@
         <v>6</v>
       </c>
       <c r="C248" s="7">
-        <v>2025010064</v>
+        <v>2025010061</v>
       </c>
       <c r="D248" s="7">
-        <v>202510609</v>
+        <v>202510608</v>
       </c>
       <c r="E248" s="7" t="s">
         <v>255</v>
@@ -7284,10 +7287,10 @@
         <v>6</v>
       </c>
       <c r="C249" s="7">
-        <v>2025010069</v>
+        <v>2025010064</v>
       </c>
       <c r="D249" s="7">
-        <v>202510610</v>
+        <v>202510609</v>
       </c>
       <c r="E249" s="7" t="s">
         <v>256</v>
@@ -7304,16 +7307,16 @@
         <v>6</v>
       </c>
       <c r="C250" s="7">
-        <v>2025010071</v>
+        <v>2025010069</v>
       </c>
       <c r="D250" s="7">
-        <v>202510611</v>
+        <v>202510610</v>
       </c>
       <c r="E250" s="7" t="s">
         <v>257</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" customHeight="1" spans="1:6">
@@ -7324,10 +7327,10 @@
         <v>6</v>
       </c>
       <c r="C251" s="7">
-        <v>2025010079</v>
+        <v>2025010071</v>
       </c>
       <c r="D251" s="7">
-        <v>202510612</v>
+        <v>202510611</v>
       </c>
       <c r="E251" s="7" t="s">
         <v>258</v>
@@ -7344,16 +7347,16 @@
         <v>6</v>
       </c>
       <c r="C252" s="7">
-        <v>2025010086</v>
+        <v>2025010079</v>
       </c>
       <c r="D252" s="7">
-        <v>202510613</v>
+        <v>202510612</v>
       </c>
       <c r="E252" s="7" t="s">
         <v>259</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" customHeight="1" spans="1:6">
@@ -7364,16 +7367,16 @@
         <v>6</v>
       </c>
       <c r="C253" s="7">
-        <v>2025010097</v>
+        <v>2025010086</v>
       </c>
       <c r="D253" s="7">
-        <v>202510614</v>
+        <v>202510613</v>
       </c>
       <c r="E253" s="7" t="s">
         <v>260</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" customHeight="1" spans="1:6">
@@ -7384,10 +7387,10 @@
         <v>6</v>
       </c>
       <c r="C254" s="7">
-        <v>2025010109</v>
+        <v>2025010097</v>
       </c>
       <c r="D254" s="7">
-        <v>202510615</v>
+        <v>202510614</v>
       </c>
       <c r="E254" s="7" t="s">
         <v>261</v>
@@ -7404,10 +7407,10 @@
         <v>6</v>
       </c>
       <c r="C255" s="7">
-        <v>2025010118</v>
+        <v>2025010109</v>
       </c>
       <c r="D255" s="7">
-        <v>202510616</v>
+        <v>202510615</v>
       </c>
       <c r="E255" s="7" t="s">
         <v>262</v>
@@ -7424,16 +7427,16 @@
         <v>6</v>
       </c>
       <c r="C256" s="7">
-        <v>2025010121</v>
+        <v>2025010118</v>
       </c>
       <c r="D256" s="7">
-        <v>202510617</v>
+        <v>202510616</v>
       </c>
       <c r="E256" s="7" t="s">
         <v>263</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" customHeight="1" spans="1:6">
@@ -7444,10 +7447,10 @@
         <v>6</v>
       </c>
       <c r="C257" s="7">
-        <v>2025010130</v>
+        <v>2025010121</v>
       </c>
       <c r="D257" s="7">
-        <v>202510618</v>
+        <v>202510617</v>
       </c>
       <c r="E257" s="7" t="s">
         <v>264</v>
@@ -7464,16 +7467,16 @@
         <v>6</v>
       </c>
       <c r="C258" s="7">
-        <v>2025010140</v>
+        <v>2025010130</v>
       </c>
       <c r="D258" s="7">
-        <v>202510619</v>
+        <v>202510618</v>
       </c>
       <c r="E258" s="7" t="s">
         <v>265</v>
       </c>
       <c r="F258" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" customHeight="1" spans="1:6">
@@ -7484,15 +7487,15 @@
         <v>6</v>
       </c>
       <c r="C259" s="7">
-        <v>2025010334</v>
+        <v>2025010140</v>
       </c>
       <c r="D259" s="7">
-        <v>202510620</v>
-      </c>
-      <c r="E259" s="9" t="s">
+        <v>202510619</v>
+      </c>
+      <c r="E259" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F259" s="10" t="s">
+      <c r="F259" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7504,15 +7507,15 @@
         <v>6</v>
       </c>
       <c r="C260" s="7">
-        <v>2025010143</v>
+        <v>2025010334</v>
       </c>
       <c r="D260" s="7">
-        <v>202510621</v>
-      </c>
-      <c r="E260" s="7" t="s">
+        <v>202510620</v>
+      </c>
+      <c r="E260" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="F260" s="8" t="s">
+      <c r="F260" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7524,16 +7527,16 @@
         <v>6</v>
       </c>
       <c r="C261" s="7">
-        <v>2025010145</v>
+        <v>2025010143</v>
       </c>
       <c r="D261" s="7">
-        <v>202510622</v>
+        <v>202510621</v>
       </c>
       <c r="E261" s="7" t="s">
         <v>268</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" customHeight="1" spans="1:6">
@@ -7544,10 +7547,10 @@
         <v>6</v>
       </c>
       <c r="C262" s="7">
-        <v>2025010153</v>
+        <v>2025010145</v>
       </c>
       <c r="D262" s="7">
-        <v>202510623</v>
+        <v>202510622</v>
       </c>
       <c r="E262" s="7" t="s">
         <v>269</v>
@@ -7564,10 +7567,10 @@
         <v>6</v>
       </c>
       <c r="C263" s="7">
-        <v>2025010154</v>
+        <v>2025010153</v>
       </c>
       <c r="D263" s="7">
-        <v>202510624</v>
+        <v>202510623</v>
       </c>
       <c r="E263" s="7" t="s">
         <v>270</v>
@@ -7584,16 +7587,16 @@
         <v>6</v>
       </c>
       <c r="C264" s="7">
-        <v>2025010321</v>
+        <v>2025010154</v>
       </c>
       <c r="D264" s="7">
-        <v>202510625</v>
+        <v>202510624</v>
       </c>
       <c r="E264" s="7" t="s">
         <v>271</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" customHeight="1" spans="1:6">
@@ -7604,16 +7607,16 @@
         <v>6</v>
       </c>
       <c r="C265" s="7">
-        <v>2025010156</v>
+        <v>2025010321</v>
       </c>
       <c r="D265" s="7">
-        <v>202510626</v>
+        <v>202510625</v>
       </c>
       <c r="E265" s="7" t="s">
         <v>272</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" customHeight="1" spans="1:6">
@@ -7624,10 +7627,10 @@
         <v>6</v>
       </c>
       <c r="C266" s="7">
-        <v>2025010179</v>
+        <v>2025010156</v>
       </c>
       <c r="D266" s="7">
-        <v>202510627</v>
+        <v>202510626</v>
       </c>
       <c r="E266" s="7" t="s">
         <v>273</v>
@@ -7644,10 +7647,10 @@
         <v>6</v>
       </c>
       <c r="C267" s="7">
-        <v>2025010196</v>
+        <v>2025010179</v>
       </c>
       <c r="D267" s="7">
-        <v>202510628</v>
+        <v>202510627</v>
       </c>
       <c r="E267" s="7" t="s">
         <v>274</v>
@@ -7664,10 +7667,10 @@
         <v>6</v>
       </c>
       <c r="C268" s="7">
-        <v>2025010205</v>
+        <v>2025010196</v>
       </c>
       <c r="D268" s="7">
-        <v>202510629</v>
+        <v>202510628</v>
       </c>
       <c r="E268" s="7" t="s">
         <v>275</v>
@@ -7684,10 +7687,10 @@
         <v>6</v>
       </c>
       <c r="C269" s="7">
-        <v>2025010213</v>
+        <v>2025010205</v>
       </c>
       <c r="D269" s="7">
-        <v>202510630</v>
+        <v>202510629</v>
       </c>
       <c r="E269" s="7" t="s">
         <v>276</v>
@@ -7704,16 +7707,16 @@
         <v>6</v>
       </c>
       <c r="C270" s="7">
-        <v>2025010220</v>
+        <v>2025010213</v>
       </c>
       <c r="D270" s="7">
-        <v>202510631</v>
+        <v>202510630</v>
       </c>
       <c r="E270" s="7" t="s">
         <v>277</v>
       </c>
       <c r="F270" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" customHeight="1" spans="1:6">
@@ -7724,16 +7727,16 @@
         <v>6</v>
       </c>
       <c r="C271" s="7">
-        <v>2025010226</v>
+        <v>2025010220</v>
       </c>
       <c r="D271" s="7">
-        <v>202510632</v>
+        <v>202510631</v>
       </c>
       <c r="E271" s="7" t="s">
         <v>278</v>
       </c>
       <c r="F271" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" customHeight="1" spans="1:6">
@@ -7744,16 +7747,16 @@
         <v>6</v>
       </c>
       <c r="C272" s="7">
-        <v>2025010228</v>
+        <v>2025010226</v>
       </c>
       <c r="D272" s="7">
-        <v>202510633</v>
+        <v>202510632</v>
       </c>
       <c r="E272" s="7" t="s">
         <v>279</v>
       </c>
       <c r="F272" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" customHeight="1" spans="1:6">
@@ -7764,16 +7767,16 @@
         <v>6</v>
       </c>
       <c r="C273" s="7">
-        <v>2025010230</v>
+        <v>2025010228</v>
       </c>
       <c r="D273" s="7">
-        <v>202510634</v>
+        <v>202510633</v>
       </c>
       <c r="E273" s="7" t="s">
         <v>280</v>
       </c>
       <c r="F273" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" customHeight="1" spans="1:6">
@@ -7784,10 +7787,10 @@
         <v>6</v>
       </c>
       <c r="C274" s="7">
-        <v>2025010231</v>
+        <v>2025010230</v>
       </c>
       <c r="D274" s="7">
-        <v>202510635</v>
+        <v>202510634</v>
       </c>
       <c r="E274" s="7" t="s">
         <v>281</v>
@@ -7804,16 +7807,16 @@
         <v>6</v>
       </c>
       <c r="C275" s="7">
-        <v>2025010242</v>
+        <v>2025010231</v>
       </c>
       <c r="D275" s="7">
-        <v>202510636</v>
+        <v>202510635</v>
       </c>
       <c r="E275" s="7" t="s">
         <v>282</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" customHeight="1" spans="1:6">
@@ -7824,10 +7827,10 @@
         <v>6</v>
       </c>
       <c r="C276" s="7">
-        <v>2025010246</v>
+        <v>2025010242</v>
       </c>
       <c r="D276" s="7">
-        <v>202510637</v>
+        <v>202510636</v>
       </c>
       <c r="E276" s="7" t="s">
         <v>283</v>
@@ -7844,10 +7847,10 @@
         <v>6</v>
       </c>
       <c r="C277" s="7">
-        <v>2025010247</v>
+        <v>2025010246</v>
       </c>
       <c r="D277" s="7">
-        <v>202510638</v>
+        <v>202510637</v>
       </c>
       <c r="E277" s="7" t="s">
         <v>284</v>
@@ -7864,10 +7867,10 @@
         <v>6</v>
       </c>
       <c r="C278" s="7">
-        <v>2025010257</v>
+        <v>2025010247</v>
       </c>
       <c r="D278" s="7">
-        <v>202510639</v>
+        <v>202510638</v>
       </c>
       <c r="E278" s="7" t="s">
         <v>285</v>
@@ -7884,16 +7887,16 @@
         <v>6</v>
       </c>
       <c r="C279" s="7">
-        <v>2025010342</v>
+        <v>2025010257</v>
       </c>
       <c r="D279" s="7">
-        <v>202510640</v>
-      </c>
-      <c r="E279" s="9" t="s">
+        <v>202510639</v>
+      </c>
+      <c r="E279" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F279" s="10" t="s">
-        <v>9</v>
+      <c r="F279" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="280" customHeight="1" spans="1:6">
@@ -7904,16 +7907,16 @@
         <v>6</v>
       </c>
       <c r="C280" s="7">
-        <v>2025010272</v>
+        <v>2025010342</v>
       </c>
       <c r="D280" s="7">
-        <v>202510641</v>
-      </c>
-      <c r="E280" s="7" t="s">
+        <v>202510640</v>
+      </c>
+      <c r="E280" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="F280" s="8" t="s">
-        <v>11</v>
+      <c r="F280" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="281" customHeight="1" spans="1:6">
@@ -7924,10 +7927,10 @@
         <v>6</v>
       </c>
       <c r="C281" s="7">
-        <v>2025010275</v>
+        <v>2025010272</v>
       </c>
       <c r="D281" s="7">
-        <v>202510642</v>
+        <v>202510641</v>
       </c>
       <c r="E281" s="7" t="s">
         <v>288</v>
@@ -7944,15 +7947,15 @@
         <v>6</v>
       </c>
       <c r="C282" s="7">
-        <v>2025010328</v>
+        <v>2025010275</v>
       </c>
       <c r="D282" s="7">
-        <v>202510643</v>
-      </c>
-      <c r="E282" s="12" t="s">
+        <v>202510642</v>
+      </c>
+      <c r="E282" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F282" s="7" t="s">
+      <c r="F282" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7964,16 +7967,16 @@
         <v>6</v>
       </c>
       <c r="C283" s="7">
-        <v>2025010293</v>
+        <v>2025010328</v>
       </c>
       <c r="D283" s="7">
-        <v>202510644</v>
-      </c>
-      <c r="E283" s="7" t="s">
+        <v>202510643</v>
+      </c>
+      <c r="E283" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="F283" s="8" t="s">
-        <v>9</v>
+      <c r="F283" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="284" customHeight="1" spans="1:6">
@@ -7984,16 +7987,16 @@
         <v>6</v>
       </c>
       <c r="C284" s="7">
-        <v>2025010295</v>
+        <v>2025010293</v>
       </c>
       <c r="D284" s="7">
-        <v>202510645</v>
+        <v>202510644</v>
       </c>
       <c r="E284" s="7" t="s">
         <v>291</v>
       </c>
       <c r="F284" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" customHeight="1" spans="1:6">
@@ -8004,16 +8007,16 @@
         <v>6</v>
       </c>
       <c r="C285" s="7">
-        <v>2025010305</v>
+        <v>2025010295</v>
       </c>
       <c r="D285" s="7">
-        <v>202510646</v>
+        <v>202510645</v>
       </c>
       <c r="E285" s="7" t="s">
         <v>292</v>
       </c>
       <c r="F285" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" customHeight="1" spans="1:6">
@@ -8024,10 +8027,10 @@
         <v>6</v>
       </c>
       <c r="C286" s="7">
-        <v>2025010310</v>
+        <v>2025010305</v>
       </c>
       <c r="D286" s="7">
-        <v>202510647</v>
+        <v>202510646</v>
       </c>
       <c r="E286" s="7" t="s">
         <v>293</v>
@@ -8044,16 +8047,16 @@
         <v>6</v>
       </c>
       <c r="C287" s="7">
-        <v>2025010314</v>
+        <v>2025010310</v>
       </c>
       <c r="D287" s="7">
-        <v>202510648</v>
+        <v>202510647</v>
       </c>
       <c r="E287" s="7" t="s">
         <v>294</v>
       </c>
       <c r="F287" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" customHeight="1" spans="1:6">
@@ -8061,19 +8064,19 @@
         <v>286</v>
       </c>
       <c r="B288" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C288" s="7">
-        <v>2025010001</v>
+        <v>2025010314</v>
       </c>
       <c r="D288" s="7">
-        <v>202510701</v>
+        <v>202510648</v>
       </c>
       <c r="E288" s="7" t="s">
         <v>295</v>
       </c>
       <c r="F288" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" customHeight="1" spans="1:6">
@@ -8084,16 +8087,16 @@
         <v>7</v>
       </c>
       <c r="C289" s="7">
-        <v>2025010003</v>
+        <v>2025010001</v>
       </c>
       <c r="D289" s="7">
-        <v>202510702</v>
+        <v>202510701</v>
       </c>
       <c r="E289" s="7" t="s">
         <v>296</v>
       </c>
       <c r="F289" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290" customHeight="1" spans="1:6">
@@ -8104,16 +8107,16 @@
         <v>7</v>
       </c>
       <c r="C290" s="7">
-        <v>2025010009</v>
+        <v>2025010003</v>
       </c>
       <c r="D290" s="7">
-        <v>202510703</v>
+        <v>202510702</v>
       </c>
       <c r="E290" s="7" t="s">
         <v>297</v>
       </c>
       <c r="F290" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" customHeight="1" spans="1:6">
@@ -8124,16 +8127,16 @@
         <v>7</v>
       </c>
       <c r="C291" s="7">
-        <v>2025010017</v>
+        <v>2025010009</v>
       </c>
       <c r="D291" s="7">
-        <v>202510704</v>
+        <v>202510703</v>
       </c>
       <c r="E291" s="7" t="s">
         <v>298</v>
       </c>
       <c r="F291" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" customHeight="1" spans="1:6">
@@ -8144,16 +8147,16 @@
         <v>7</v>
       </c>
       <c r="C292" s="7">
-        <v>2025010019</v>
+        <v>2025010017</v>
       </c>
       <c r="D292" s="7">
-        <v>202510705</v>
+        <v>202510704</v>
       </c>
       <c r="E292" s="7" t="s">
         <v>299</v>
       </c>
       <c r="F292" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" customHeight="1" spans="1:6">
@@ -8164,16 +8167,16 @@
         <v>7</v>
       </c>
       <c r="C293" s="7">
-        <v>2025010030</v>
+        <v>2025010019</v>
       </c>
       <c r="D293" s="7">
-        <v>202510706</v>
+        <v>202510705</v>
       </c>
       <c r="E293" s="7" t="s">
         <v>300</v>
       </c>
       <c r="F293" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294" customHeight="1" spans="1:6">
@@ -8184,10 +8187,10 @@
         <v>7</v>
       </c>
       <c r="C294" s="7">
-        <v>2025010032</v>
+        <v>2025010030</v>
       </c>
       <c r="D294" s="7">
-        <v>202510707</v>
+        <v>202510706</v>
       </c>
       <c r="E294" s="7" t="s">
         <v>301</v>
@@ -8204,15 +8207,15 @@
         <v>7</v>
       </c>
       <c r="C295" s="7">
-        <v>2025010354</v>
+        <v>2025010032</v>
       </c>
       <c r="D295" s="7">
-        <v>202510708</v>
-      </c>
-      <c r="E295" s="9" t="s">
+        <v>202510707</v>
+      </c>
+      <c r="E295" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F295" s="10" t="s">
+      <c r="F295" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8224,16 +8227,16 @@
         <v>7</v>
       </c>
       <c r="C296" s="7">
-        <v>2025010051</v>
+        <v>2025010354</v>
       </c>
       <c r="D296" s="7">
-        <v>202510709</v>
-      </c>
-      <c r="E296" s="7" t="s">
+        <v>202510708</v>
+      </c>
+      <c r="E296" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="F296" s="8" t="s">
-        <v>9</v>
+      <c r="F296" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="297" customHeight="1" spans="1:6">
@@ -8244,10 +8247,10 @@
         <v>7</v>
       </c>
       <c r="C297" s="7">
-        <v>2025010053</v>
+        <v>2025010051</v>
       </c>
       <c r="D297" s="7">
-        <v>202510710</v>
+        <v>202510709</v>
       </c>
       <c r="E297" s="7" t="s">
         <v>304</v>
@@ -8264,16 +8267,16 @@
         <v>7</v>
       </c>
       <c r="C298" s="7">
-        <v>2025010351</v>
+        <v>2025010053</v>
       </c>
       <c r="D298" s="7">
-        <v>202510711</v>
-      </c>
-      <c r="E298" s="9" t="s">
+        <v>202510710</v>
+      </c>
+      <c r="E298" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F298" s="10" t="s">
-        <v>11</v>
+      <c r="F298" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="299" customHeight="1" spans="1:6">
@@ -8284,15 +8287,15 @@
         <v>7</v>
       </c>
       <c r="C299" s="7">
-        <v>2025010058</v>
+        <v>2025010351</v>
       </c>
       <c r="D299" s="7">
-        <v>202510712</v>
-      </c>
-      <c r="E299" s="7" t="s">
+        <v>202510711</v>
+      </c>
+      <c r="E299" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="F299" s="8" t="s">
+      <c r="F299" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8304,16 +8307,16 @@
         <v>7</v>
       </c>
       <c r="C300" s="7">
-        <v>2025010060</v>
+        <v>2025010058</v>
       </c>
       <c r="D300" s="7">
-        <v>202510713</v>
+        <v>202510712</v>
       </c>
       <c r="E300" s="7" t="s">
         <v>307</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" customHeight="1" spans="1:6">
@@ -8324,16 +8327,16 @@
         <v>7</v>
       </c>
       <c r="C301" s="7">
-        <v>2025010070</v>
+        <v>2025010060</v>
       </c>
       <c r="D301" s="7">
-        <v>202510714</v>
+        <v>202510713</v>
       </c>
       <c r="E301" s="7" t="s">
         <v>308</v>
       </c>
       <c r="F301" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302" customHeight="1" spans="1:6">
@@ -8344,16 +8347,16 @@
         <v>7</v>
       </c>
       <c r="C302" s="7">
-        <v>2025010077</v>
+        <v>2025010070</v>
       </c>
       <c r="D302" s="7">
-        <v>202510715</v>
+        <v>202510714</v>
       </c>
       <c r="E302" s="7" t="s">
         <v>309</v>
       </c>
       <c r="F302" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303" customHeight="1" spans="1:6">
@@ -8364,16 +8367,16 @@
         <v>7</v>
       </c>
       <c r="C303" s="7">
-        <v>2025010080</v>
+        <v>2025010077</v>
       </c>
       <c r="D303" s="7">
-        <v>202510716</v>
+        <v>202510715</v>
       </c>
       <c r="E303" s="7" t="s">
         <v>310</v>
       </c>
       <c r="F303" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" customHeight="1" spans="1:6">
@@ -8384,10 +8387,10 @@
         <v>7</v>
       </c>
       <c r="C304" s="7">
-        <v>2025010084</v>
+        <v>2025010080</v>
       </c>
       <c r="D304" s="7">
-        <v>202510717</v>
+        <v>202510716</v>
       </c>
       <c r="E304" s="7" t="s">
         <v>311</v>
@@ -8404,16 +8407,16 @@
         <v>7</v>
       </c>
       <c r="C305" s="7">
-        <v>2025010085</v>
+        <v>2025010084</v>
       </c>
       <c r="D305" s="7">
-        <v>202510718</v>
+        <v>202510717</v>
       </c>
       <c r="E305" s="7" t="s">
         <v>312</v>
       </c>
       <c r="F305" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" customHeight="1" spans="1:6">
@@ -8424,10 +8427,10 @@
         <v>7</v>
       </c>
       <c r="C306" s="7">
-        <v>2025010088</v>
+        <v>2025010085</v>
       </c>
       <c r="D306" s="7">
-        <v>202510719</v>
+        <v>202510718</v>
       </c>
       <c r="E306" s="7" t="s">
         <v>313</v>
@@ -8444,16 +8447,16 @@
         <v>7</v>
       </c>
       <c r="C307" s="7">
-        <v>2025010089</v>
+        <v>2025010088</v>
       </c>
       <c r="D307" s="7">
-        <v>202510720</v>
+        <v>202510719</v>
       </c>
       <c r="E307" s="7" t="s">
         <v>314</v>
       </c>
       <c r="F307" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308" customHeight="1" spans="1:6">
@@ -8464,10 +8467,10 @@
         <v>7</v>
       </c>
       <c r="C308" s="7">
-        <v>2025010104</v>
+        <v>2025010089</v>
       </c>
       <c r="D308" s="7">
-        <v>202510721</v>
+        <v>202510720</v>
       </c>
       <c r="E308" s="7" t="s">
         <v>315</v>
@@ -8484,16 +8487,16 @@
         <v>7</v>
       </c>
       <c r="C309" s="7">
-        <v>2025010107</v>
+        <v>2025010104</v>
       </c>
       <c r="D309" s="7">
-        <v>202510722</v>
+        <v>202510721</v>
       </c>
       <c r="E309" s="7" t="s">
         <v>316</v>
       </c>
       <c r="F309" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" customHeight="1" spans="1:6">
@@ -8504,10 +8507,10 @@
         <v>7</v>
       </c>
       <c r="C310" s="7">
-        <v>2025010115</v>
+        <v>2025010107</v>
       </c>
       <c r="D310" s="7">
-        <v>202510723</v>
+        <v>202510722</v>
       </c>
       <c r="E310" s="7" t="s">
         <v>317</v>
@@ -8524,10 +8527,10 @@
         <v>7</v>
       </c>
       <c r="C311" s="7">
-        <v>2025010119</v>
+        <v>2025010115</v>
       </c>
       <c r="D311" s="7">
-        <v>202510724</v>
+        <v>202510723</v>
       </c>
       <c r="E311" s="7" t="s">
         <v>318</v>
@@ -8544,10 +8547,10 @@
         <v>7</v>
       </c>
       <c r="C312" s="7">
-        <v>2025010122</v>
+        <v>2025010119</v>
       </c>
       <c r="D312" s="7">
-        <v>202510725</v>
+        <v>202510724</v>
       </c>
       <c r="E312" s="7" t="s">
         <v>319</v>
@@ -8564,10 +8567,10 @@
         <v>7</v>
       </c>
       <c r="C313" s="7">
-        <v>2025010137</v>
+        <v>2025010122</v>
       </c>
       <c r="D313" s="7">
-        <v>202510726</v>
+        <v>202510725</v>
       </c>
       <c r="E313" s="7" t="s">
         <v>320</v>
@@ -8584,16 +8587,16 @@
         <v>7</v>
       </c>
       <c r="C314" s="7">
-        <v>2025010146</v>
+        <v>2025010137</v>
       </c>
       <c r="D314" s="7">
-        <v>202510727</v>
+        <v>202510726</v>
       </c>
       <c r="E314" s="7" t="s">
         <v>321</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" customHeight="1" spans="1:6">
@@ -8604,10 +8607,10 @@
         <v>7</v>
       </c>
       <c r="C315" s="7">
-        <v>2025010147</v>
+        <v>2025010146</v>
       </c>
       <c r="D315" s="7">
-        <v>202510728</v>
+        <v>202510727</v>
       </c>
       <c r="E315" s="7" t="s">
         <v>322</v>
@@ -8624,10 +8627,10 @@
         <v>7</v>
       </c>
       <c r="C316" s="7">
-        <v>2025010158</v>
+        <v>2025010147</v>
       </c>
       <c r="D316" s="7">
-        <v>202510729</v>
+        <v>202510728</v>
       </c>
       <c r="E316" s="7" t="s">
         <v>323</v>
@@ -8644,16 +8647,16 @@
         <v>7</v>
       </c>
       <c r="C317" s="7">
-        <v>2025010161</v>
+        <v>2025010158</v>
       </c>
       <c r="D317" s="7">
-        <v>202510730</v>
+        <v>202510729</v>
       </c>
       <c r="E317" s="7" t="s">
         <v>324</v>
       </c>
       <c r="F317" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" customHeight="1" spans="1:6">
@@ -8664,16 +8667,16 @@
         <v>7</v>
       </c>
       <c r="C318" s="7">
-        <v>2025010169</v>
+        <v>2025010161</v>
       </c>
       <c r="D318" s="7">
-        <v>202510731</v>
+        <v>202510730</v>
       </c>
       <c r="E318" s="7" t="s">
         <v>325</v>
       </c>
       <c r="F318" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" customHeight="1" spans="1:6">
@@ -8684,10 +8687,10 @@
         <v>7</v>
       </c>
       <c r="C319" s="7">
-        <v>2025010176</v>
+        <v>2025010169</v>
       </c>
       <c r="D319" s="7">
-        <v>202510732</v>
+        <v>202510731</v>
       </c>
       <c r="E319" s="7" t="s">
         <v>326</v>
@@ -8704,16 +8707,16 @@
         <v>7</v>
       </c>
       <c r="C320" s="7">
-        <v>2025010338</v>
+        <v>2025010176</v>
       </c>
       <c r="D320" s="7">
-        <v>202510733</v>
-      </c>
-      <c r="E320" s="9" t="s">
+        <v>202510732</v>
+      </c>
+      <c r="E320" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F320" s="10" t="s">
-        <v>9</v>
+      <c r="F320" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="321" customHeight="1" spans="1:6">
@@ -8724,16 +8727,16 @@
         <v>7</v>
       </c>
       <c r="C321" s="7">
-        <v>2025010182</v>
+        <v>2025010338</v>
       </c>
       <c r="D321" s="7">
-        <v>202510734</v>
-      </c>
-      <c r="E321" s="7" t="s">
+        <v>202510733</v>
+      </c>
+      <c r="E321" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="F321" s="8" t="s">
-        <v>11</v>
+      <c r="F321" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="322" customHeight="1" spans="1:6">
@@ -8744,10 +8747,10 @@
         <v>7</v>
       </c>
       <c r="C322" s="7">
-        <v>2025010195</v>
+        <v>2025010182</v>
       </c>
       <c r="D322" s="7">
-        <v>202510735</v>
+        <v>202510734</v>
       </c>
       <c r="E322" s="7" t="s">
         <v>329</v>
@@ -8764,16 +8767,16 @@
         <v>7</v>
       </c>
       <c r="C323" s="7">
-        <v>2025010197</v>
+        <v>2025010195</v>
       </c>
       <c r="D323" s="7">
-        <v>202510736</v>
+        <v>202510735</v>
       </c>
       <c r="E323" s="7" t="s">
         <v>330</v>
       </c>
       <c r="F323" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324" customHeight="1" spans="1:6">
@@ -8784,16 +8787,16 @@
         <v>7</v>
       </c>
       <c r="C324" s="7">
-        <v>2025010344</v>
+        <v>2025010197</v>
       </c>
       <c r="D324" s="7">
-        <v>202510737</v>
-      </c>
-      <c r="E324" s="9" t="s">
+        <v>202510736</v>
+      </c>
+      <c r="E324" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F324" s="10" t="s">
-        <v>11</v>
+      <c r="F324" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="325" customHeight="1" spans="1:6">
@@ -8804,16 +8807,16 @@
         <v>7</v>
       </c>
       <c r="C325" s="7">
-        <v>2025010215</v>
+        <v>2025010344</v>
       </c>
       <c r="D325" s="7">
-        <v>202510738</v>
-      </c>
-      <c r="E325" s="7" t="s">
+        <v>202510737</v>
+      </c>
+      <c r="E325" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="F325" s="8" t="s">
-        <v>9</v>
+      <c r="F325" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="326" customHeight="1" spans="1:6">
@@ -8824,15 +8827,15 @@
         <v>7</v>
       </c>
       <c r="C326" s="7">
-        <v>2025010339</v>
+        <v>2025010215</v>
       </c>
       <c r="D326" s="7">
-        <v>202510739</v>
-      </c>
-      <c r="E326" s="9" t="s">
+        <v>202510738</v>
+      </c>
+      <c r="E326" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F326" s="10" t="s">
+      <c r="F326" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8844,15 +8847,15 @@
         <v>7</v>
       </c>
       <c r="C327" s="7">
-        <v>2025010251</v>
+        <v>2025010339</v>
       </c>
       <c r="D327" s="7">
-        <v>202510740</v>
-      </c>
-      <c r="E327" s="7" t="s">
+        <v>202510739</v>
+      </c>
+      <c r="E327" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="F327" s="8" t="s">
+      <c r="F327" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8864,16 +8867,16 @@
         <v>7</v>
       </c>
       <c r="C328" s="7">
-        <v>2025010253</v>
+        <v>2025010251</v>
       </c>
       <c r="D328" s="7">
-        <v>202510741</v>
+        <v>202510740</v>
       </c>
       <c r="E328" s="7" t="s">
         <v>335</v>
       </c>
       <c r="F328" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329" customHeight="1" spans="1:6">
@@ -8884,10 +8887,10 @@
         <v>7</v>
       </c>
       <c r="C329" s="7">
-        <v>2025010267</v>
+        <v>2025010253</v>
       </c>
       <c r="D329" s="7">
-        <v>202510742</v>
+        <v>202510741</v>
       </c>
       <c r="E329" s="7" t="s">
         <v>336</v>
@@ -8904,10 +8907,10 @@
         <v>7</v>
       </c>
       <c r="C330" s="7">
-        <v>2025010271</v>
+        <v>2025010267</v>
       </c>
       <c r="D330" s="7">
-        <v>202510743</v>
+        <v>202510742</v>
       </c>
       <c r="E330" s="7" t="s">
         <v>337</v>
@@ -8924,16 +8927,16 @@
         <v>7</v>
       </c>
       <c r="C331" s="7">
-        <v>2025010280</v>
+        <v>2025010271</v>
       </c>
       <c r="D331" s="7">
-        <v>202510745</v>
+        <v>202510743</v>
       </c>
       <c r="E331" s="7" t="s">
         <v>338</v>
       </c>
       <c r="F331" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" customHeight="1" spans="1:6">
@@ -8944,10 +8947,10 @@
         <v>7</v>
       </c>
       <c r="C332" s="7">
-        <v>2025010282</v>
+        <v>2025010280</v>
       </c>
       <c r="D332" s="7">
-        <v>202510746</v>
+        <v>202510744</v>
       </c>
       <c r="E332" s="7" t="s">
         <v>339</v>
@@ -8964,10 +8967,10 @@
         <v>7</v>
       </c>
       <c r="C333" s="7">
-        <v>2025010288</v>
+        <v>2025010282</v>
       </c>
       <c r="D333" s="7">
-        <v>202510747</v>
+        <v>202510745</v>
       </c>
       <c r="E333" s="7" t="s">
         <v>340</v>
@@ -8984,20 +8987,40 @@
         <v>7</v>
       </c>
       <c r="C334" s="7">
-        <v>2025010289</v>
+        <v>2025010288</v>
       </c>
       <c r="D334" s="7">
-        <v>202510748</v>
+        <v>202510746</v>
       </c>
       <c r="E334" s="7" t="s">
         <v>341</v>
       </c>
       <c r="F334" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" customHeight="1" spans="1:6">
+      <c r="A335" s="7">
+        <v>333</v>
+      </c>
+      <c r="B335" s="8">
+        <v>7</v>
+      </c>
+      <c r="C335" s="7">
+        <v>2025010289</v>
+      </c>
+      <c r="D335" s="7">
+        <v>202510747</v>
+      </c>
+      <c r="E335" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F335" s="8" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G334" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G335" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <sortState ref="C2:K340">
@@ -9006,8 +9029,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E312 E335:E1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  <conditionalFormatting sqref="E240">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E239 E241:E313 E336:E1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="600"/>
